--- a/result-one-doc.xlsx
+++ b/result-one-doc.xlsx
@@ -443,67 +443,67 @@
       </c>
       <c t="inlineStr">
         <is>
-          <t>ESF-100840008133-20231011-82446201</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>77ast8933</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>2023-10-11T03:42:06.500Z</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>06.10.2023</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>Товарищество с ограниченной ответственностью "КУРМЕТ-ФАРМ"</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>080540002682</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>Товарищество с ограниченной ответственностью "КУРМЕТ-ФАРМ"</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>080540002682</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>Товарищество с ограниченной ответственностью "MedHouse Kazakhstan" /"МедХауз Казахстан"/</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>100840008133</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>44520</t>
-        </is>
-      </c>
-      <c t="inlineStr">
-        <is>
-          <t>44520</t>
+          <t>ESF-180440013833-20240105-69575252</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>KA-28241</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>2024-01-05T08:27:24.085Z</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>26.12.2023</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>JNK-фарм(ДжиЭнКа-фарм) ТОО</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>040140005625</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>JNK-фарм(ДжиЭнКа-фарм) ТОО</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>040140005625</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>ТОО «FORCE TRADE SERVICE»</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>180440013833</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>2273.14</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>21216</t>
+        </is>
+      </c>
+      <c t="inlineStr">
+        <is>
+          <t>18942.86</t>
         </is>
       </c>
     </row>
